--- a/Excel/tabelas_db.xlsx
+++ b/Excel/tabelas_db.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="412">
   <si>
     <t>nome_comum</t>
   </si>
@@ -1204,6 +1204,24 @@
   </si>
   <si>
     <t>Loja</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>Clínica</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>Administração</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>Almoxarifado</t>
   </si>
   <si>
     <t>id_status</t>
@@ -1237,7 +1255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1249,6 +1267,10 @@
     </font>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFCC0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1272,7 +1294,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1284,11 +1306,76 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6B26B"/>
+          <bgColor rgb="FFF6B26B"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE67C73"/>
+          <bgColor rgb="FFE67C73"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -4563,6 +4650,36 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I1:I1004">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"LC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1004">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"NT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1004">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"VU"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1004">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"EN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1004">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"CR"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1004">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"EW"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4701,6 +4818,99 @@
         <v>396</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4721,10 +4931,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2">
@@ -4732,7 +4942,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3">
@@ -4740,7 +4950,7 @@
         <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4">
@@ -4748,7 +4958,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5">
@@ -4756,7 +4966,7 @@
         <v>87</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6">
@@ -4764,7 +4974,7 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7">
@@ -4772,15 +4982,15 @@
         <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
